--- a/fitness_exercises_final1.xlsx
+++ b/fitness_exercises_final1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 830 G5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 830 G5\Desktop\data workout\Data-Workout-Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7974" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="89">
   <si>
     <t>bodyPart</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>stepmill machine</t>
+  </si>
+  <si>
+    <t>Video_link</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1328"/>
+  <dimension ref="A1:M1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +636,7 @@
     <col min="1" max="12" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +673,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -709,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -747,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -785,7 +791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -823,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -861,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -899,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -937,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -975,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>

--- a/fitness_exercises_final1.xlsx
+++ b/fitness_exercises_final1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7978" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7998" uniqueCount="114">
   <si>
     <t>bodyPart</t>
   </si>
@@ -296,24 +296,102 @@
   <si>
     <t>rest_time(sec)</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qzcKvbpxhh0</t>
+  </si>
+  <si>
+    <t>Rectus Abdominis (main abdominal muscle)</t>
+  </si>
+  <si>
+    <t>Obliques (internal and external), Hip Flexors (iliopsoas, rectus femoris)</t>
+  </si>
+  <si>
+    <t>Endurance Training</t>
+  </si>
+  <si>
+    <t>Endurance Training, Hypertrophy Training</t>
+  </si>
+  <si>
+    <t>Obliques (Internal &amp; External)</t>
+  </si>
+  <si>
+    <t>Rectus Abdominis, Erector Spinae (Lower back stabilization)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V-k27645MTs</t>
+  </si>
+  <si>
+    <t>\Exercises pictures\1.gif</t>
+  </si>
+  <si>
+    <t>\Exercises pictures\2.gif</t>
+  </si>
+  <si>
+    <t>\Exercises pictures\3.gif</t>
+  </si>
+  <si>
+    <t>\Exercises pictures\4.gif</t>
+  </si>
+  <si>
+    <t>\Exercises pictures\5.gif</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6mPCVUrtNk</t>
+  </si>
+  <si>
+    <t>Rectus Abdominis</t>
+  </si>
+  <si>
+    <t>Obliques (Internal &amp; External), Hip Flexors (Iliopsoas, Rectus Femoris)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PdTNAjLfybs</t>
+  </si>
+  <si>
+    <t>Quadriceps</t>
+  </si>
+  <si>
+    <t>Hip Flexors, Lower Back</t>
+  </si>
+  <si>
+    <t>Flexibility &amp; Mobility</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2zhFTw2epoc</t>
+  </si>
+  <si>
+    <t>Rectus Abdominis, Transverse Abdominis (Deep core stabilization)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,13 +403,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,13 +718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="20.6328125" customWidth="1"/>
+    <col min="1" max="16" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -695,194 +777,254 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
         <v>30.62</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1">
         <v>30.62</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
         <v>30.62</v>
       </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
         <v>40</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>51.45</v>
       </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
         <v>15</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
         <v>30.62</v>
       </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -51123,6 +51265,14 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>